--- a/XLS_files/test_datanew.xlsx
+++ b/XLS_files/test_datanew.xlsx
@@ -5,37 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Documents/GitLocal/project_datacoll/DataFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Documents/GitLocal/NLP-SentimentAnalysis-BTC/XLS_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2848DA5-F266-5C4A-94E4-655B048D96E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED30CF6D-A7D1-D142-A853-AB2A573B9C83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="18600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="23120" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$9</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>polarity</t>
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>2021.01.14</t>
-  </si>
-  <si>
-    <t>2021.01.15</t>
   </si>
   <si>
     <t>2021.01.27</t>
@@ -54,6 +44,15 @@
   </si>
   <si>
     <t>2021.02.12</t>
+  </si>
+  <si>
+    <t>2021.02.17</t>
+  </si>
+  <si>
+    <t>2021.02.18</t>
+  </si>
+  <si>
+    <t>2021.02.21</t>
   </si>
 </sst>
 </file>
@@ -187,6 +186,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>polarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -201,65 +211,71 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2021.01.14</c:v>
+                  <c:v>2021.01.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2021.01.15</c:v>
+                  <c:v>2021.01.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2021.01.27</c:v>
+                  <c:v>2021.01.30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021.01.28</c:v>
+                  <c:v>2021.02.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2021.01.30</c:v>
+                  <c:v>2021.02.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2021.02.08</c:v>
+                  <c:v>2021.02.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2021.02.09</c:v>
+                  <c:v>2021.02.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2021.02.12</c:v>
+                  <c:v>2021.02.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021.02.21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.1092352092352092</c:v>
+                  <c:v>9.4791666666666663E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23333333333333331</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4791666666666663E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.464285714285714E-2</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.32750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,7 +283,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC90-A34C-8AC6-A9F946CA83EB}"/>
+              <c16:uniqueId val="{00000000-B59A-E547-9471-816C6185C3E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -280,11 +296,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="56514959"/>
-        <c:axId val="59095487"/>
+        <c:axId val="132165583"/>
+        <c:axId val="132167263"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56514959"/>
+        <c:axId val="132165583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59095487"/>
+        <c:crossAx val="132167263"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -335,7 +351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59095487"/>
+        <c:axId val="132167263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56514959"/>
+        <c:crossAx val="132165583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1002,23 +1018,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC1C21C-3B64-F441-96B9-21AC3B695638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BCCFF0-3BB2-604D-AD5A-597AEAB7002F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.1092352092352092</v>
+        <v>9.4791666666666663E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1389,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.23333333333333331</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1397,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9.4791666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1405,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1413,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1421,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1429,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>9.464285714285714E-2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1437,7 +1453,15 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7.4999999999999997E-2</v>
+        <v>0.32750000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.15333333333333329</v>
       </c>
     </row>
   </sheetData>
